--- a/resultat/croisement_RF_montant.xlsx
+++ b/resultat/croisement_RF_montant.xlsx
@@ -17,9 +17,9 @@
     <sheet name="croisement_RF_montant" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="croisement_RF_montant">croisement_RF_montant!$A$1:$D$10</definedName>
+    <definedName name="croisement_RF_montant">'croisement_RF_montant'!$A$1:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="true"/>
   <pivotCaches>
     <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>seg_RF</t>
   </si>
@@ -731,18 +731,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+    <sheetView tabSelected="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,10 +768,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D2">
-        <v>13.615805760533206</v>
+        <v>13.713331743381826</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,10 +782,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D3">
-        <v>11.378243275410616</v>
+        <v>11.471500119246363</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,10 +796,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D4">
-        <v>3.665793858605094</v>
+        <v>3.79203434295254</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,10 +810,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D5">
-        <v>14.377529159723876</v>
+        <v>14.357262103505843</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,10 +824,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D6">
-        <v>14.115686741252082</v>
+        <v>14.261865013117099</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,10 +838,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D7">
-        <v>6.2842180433230181</v>
+        <v>6.248509420462676</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,10 +852,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>2.0471316353249227</v>
+        <v>1.97948962556642</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,10 +866,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D9">
-        <v>14.47274458462271</v>
+        <v>14.30956355831147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,10 +880,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="D10">
-        <v>20.042846941204477</v>
+        <v>19.86644407345576</v>
       </c>
     </row>
   </sheetData>

--- a/resultat/croisement_RF_montant.xlsx
+++ b/resultat/croisement_RF_montant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benze\OneDrive\Bureau\M2 MOSEF 2024-2025\CRM Analytics\Projet_CRM_Analytics\Segmentation_RFM\resultat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39732D7-C3CB-4EEC-A15F-F88D97F804C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E6F991-5B4F-42BA-AAF7-6ACB44B45A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,17 @@
     <sheet name="croisement_RF_montant" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="croisement_RF_montant">'croisement_RF_montant'!$A$1:$D$10</definedName>
+    <definedName name="croisement_RF_montant">croisement_RF_montant!$A$1:$D$10</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>seg_RF</t>
   </si>
@@ -59,9 +59,6 @@
     <t>RF3</t>
   </si>
   <si>
-    <t>Étiquettes de colonnes</t>
-  </si>
-  <si>
     <t>(vide)</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Somme de PERCENT</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -107,13 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,7 +233,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE889C90-FAB4-464D-9392-69B8EB771B0E}" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE889C90-FAB4-464D-9392-69B8EB771B0E}" name="Tableau croisé dynamique1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -603,7 +602,10 @@
   <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:F9"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" previousRow="2" click="1" r:id="rId1">
+        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,15 +619,15 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -637,27 +639,26 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>13.615805760533206</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>11.378243275410616</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>3.665793858605094</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>28.65984289454892</v>
       </c>
     </row>
@@ -665,17 +666,16 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>14.377529159723876</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>14.115686741252082</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>6.2842180433230181</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>34.777433944298977</v>
       </c>
     </row>
@@ -683,45 +683,38 @@
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>2.0471316353249227</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>14.47274458462271</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>20.042846941204477</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>36.562723161152107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>30.040466555582007</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>39.966674601285405</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>29.992858843132588</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>100</v>
       </c>
     </row>
@@ -731,19 +724,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,7 +789,7 @@
         <v>159</v>
       </c>
       <c r="D4">
-        <v>3.79203434295254</v>
+        <v>3.7920343429525398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,7 +831,7 @@
         <v>262</v>
       </c>
       <c r="D7">
-        <v>6.248509420462676</v>
+        <v>6.2485094204626757</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,7 +845,7 @@
         <v>83</v>
       </c>
       <c r="D8">
-        <v>1.97948962556642</v>
+        <v>1.9794896255664201</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,7 +859,7 @@
         <v>600</v>
       </c>
       <c r="D9">
-        <v>14.30956355831147</v>
+        <v>14.309563558311471</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
